--- a/data/toFill/ToFill_fill_Me.xlsx
+++ b/data/toFill/ToFill_fill_Me.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/535606_umons_ac_be/Documents/PRIVE/UMONS/DOCTORAT/SAFEGUARD/SafeguardDataPaper-R/data/working_directory/toFill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/535606_umons_ac_be/Documents/PRIVE/UMONS/DOCTORAT/SAFEGUARD/SafeguardDataPaper-R/data/toFill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="11_2D70FDCE8F79A8D366075C52F3A6FAF5062AAEFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EACAE8D-9ACF-457A-87B0-9562CE3F14A0}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="11_2D70FDCE8F79A8D366075C52F3A6FAF5062AAEFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A926DC-C0A2-4856-A99D-53D61C2FD851}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -1046,12 +1046,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1092,6 +1086,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1300,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1419,13 +1419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1452,7 +1449,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,25 +1458,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1504,7 +1501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1519,13 +1516,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1898,7 +1895,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1908,12 +1905,12 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1923,12 +1920,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>237</v>
       </c>
     </row>
@@ -1941,9 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513FDE2B-1FF3-4AAA-91E9-38BFF2BF24C6}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G36" sqref="G36"/>
+      <selection pane="topRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,7 +1949,7 @@
     <col min="2" max="2" width="28.21875" style="12" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.21875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="44" style="53" customWidth="1"/>
+    <col min="5" max="5" width="44" style="52" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="12"/>
   </cols>
   <sheetData>
@@ -2106,7 +2103,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -2172,7 +2169,7 @@
       <c r="A11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2193,7 +2190,7 @@
       <c r="A12" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2214,7 +2211,7 @@
       <c r="A13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2235,7 +2232,7 @@
       <c r="A14" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -2256,7 +2253,7 @@
       <c r="A15" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2277,7 +2274,7 @@
       <c r="A16" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2298,7 +2295,7 @@
       <c r="A17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -2319,7 +2316,7 @@
       <c r="A18" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -2340,7 +2337,7 @@
       <c r="A19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -2361,7 +2358,7 @@
       <c r="A20" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -2382,7 +2379,7 @@
       <c r="A21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2403,7 +2400,7 @@
       <c r="A22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -2426,7 +2423,7 @@
       <c r="A23" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -2438,7 +2435,7 @@
       <c r="E23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="40" t="s">
         <v>108</v>
       </c>
       <c r="G23" s="18"/>
@@ -2447,7 +2444,7 @@
       <c r="A24" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -2459,7 +2456,7 @@
       <c r="E24" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="40" t="s">
         <v>114</v>
       </c>
       <c r="G24" s="18"/>
@@ -2468,7 +2465,7 @@
       <c r="A25" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -2480,7 +2477,7 @@
       <c r="E25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="40" t="s">
         <v>118</v>
       </c>
       <c r="G25" s="18"/>
@@ -2489,7 +2486,7 @@
       <c r="A26" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -2501,7 +2498,7 @@
       <c r="E26" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="40" t="s">
         <v>108</v>
       </c>
       <c r="G26" s="18"/>
@@ -2510,7 +2507,7 @@
       <c r="A27" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -2522,7 +2519,7 @@
       <c r="E27" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="40" t="s">
         <v>114</v>
       </c>
       <c r="G27" s="18"/>
@@ -2531,7 +2528,7 @@
       <c r="A28" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="70" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -2543,37 +2540,37 @@
       <c r="E28" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="41" t="s">
         <v>118</v>
       </c>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2594,7 +2591,7 @@
       <c r="A31" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -2615,7 +2612,7 @@
       <c r="A32" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -2636,7 +2633,7 @@
       <c r="A33" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -2648,7 +2645,7 @@
       <c r="E33" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="50" t="s">
         <v>142</v>
       </c>
       <c r="G33" s="18"/>
@@ -2657,7 +2654,7 @@
       <c r="A34" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -2669,7 +2666,7 @@
       <c r="E34" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="50" t="s">
         <v>142</v>
       </c>
       <c r="G34" s="18"/>
@@ -2678,7 +2675,7 @@
       <c r="A35" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="74" t="s">
         <v>273</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -2698,10 +2695,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -2724,7 +2721,7 @@
       <c r="A37" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>276</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -2780,744 +2777,744 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="34.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="35.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.5546875" style="65"/>
+    <col min="1" max="1" width="30.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.21875" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="64" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.21875" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.5546875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:36" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AB1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="63" t="s">
+      <c r="AD1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AE1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="63" t="s">
+      <c r="AH1" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AJ1" s="62" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H2" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="S2" s="65">
+      <c r="S2" s="64">
         <v>1</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="65">
+      <c r="V2" s="64">
         <v>1950</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AB2" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="65" t="s">
+      <c r="AC2" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AD2" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AE2" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="AG2" s="65" t="s">
+      <c r="AG2" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="AH2" s="65" t="s">
+      <c r="AH2" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="65" t="s">
+      <c r="AI2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ2" s="65" t="s">
+      <c r="AJ2" s="64" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H3" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="R3" s="65" t="s">
+      <c r="R3" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="S3" s="65" t="s">
+      <c r="S3" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="V3" s="65">
+      <c r="V3" s="64">
         <v>2000</v>
       </c>
-      <c r="AB3" s="65" t="s">
+      <c r="AB3" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="AC3" s="65" t="s">
+      <c r="AC3" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="AD3" s="65" t="s">
+      <c r="AD3" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="AE3" s="65" t="s">
+      <c r="AE3" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="AF3" s="65" t="s">
+      <c r="AF3" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="AG3" s="65" t="s">
+      <c r="AG3" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="AH3" s="65" t="s">
+      <c r="AH3" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="AI3" s="65" t="s">
+      <c r="AI3" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ3" s="65" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H4" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="S4" s="65">
+      <c r="S4" s="64">
         <v>1</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="65">
+      <c r="V4" s="64">
         <v>1989</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="W4" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="X4" s="65" t="s">
+      <c r="X4" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="Y4" s="65" t="s">
+      <c r="Y4" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="AD4" s="65" t="s">
+      <c r="AD4" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="AE4" s="65" t="s">
+      <c r="AE4" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="AF4" s="65" t="s">
+      <c r="AF4" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="65" t="s">
+      <c r="AG4" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="AH4" s="65" t="s">
+      <c r="AH4" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="AI4" s="65" t="s">
+      <c r="AI4" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ4" s="65" t="s">
+      <c r="AJ4" s="64" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H5" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="R5" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="S5" s="65">
+      <c r="S5" s="64">
         <v>1</v>
       </c>
-      <c r="U5" s="65" t="s">
+      <c r="U5" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="V5" s="65">
+      <c r="V5" s="64">
         <v>2005</v>
       </c>
-      <c r="AB5" s="65" t="s">
+      <c r="AB5" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="AC5" s="65" t="s">
+      <c r="AC5" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="AD5" s="65" t="s">
+      <c r="AD5" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="AE5" s="65" t="s">
+      <c r="AE5" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="AF5" s="65" t="s">
+      <c r="AF5" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="AG5" s="65" t="s">
+      <c r="AG5" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="AH5" s="65" t="s">
+      <c r="AH5" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AI5" s="65" t="s">
+      <c r="AI5" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ5" s="65" t="s">
+      <c r="AJ5" s="64" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H6" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="64">
         <v>3</v>
       </c>
-      <c r="T6" s="65" t="s">
+      <c r="T6" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="V6" s="65">
+      <c r="V6" s="64">
         <v>1915</v>
       </c>
-      <c r="W6" s="65" t="s">
+      <c r="W6" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="X6" s="65" t="s">
+      <c r="X6" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" s="65" t="s">
+      <c r="AB6" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="65" t="s">
+      <c r="AC6" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" s="65" t="s">
+      <c r="AD6" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="AE6" s="65" t="s">
+      <c r="AE6" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="AF6" s="65" t="s">
+      <c r="AF6" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="AG6" s="65" t="s">
+      <c r="AG6" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="AH6" s="65" t="s">
+      <c r="AH6" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="AI6" s="65" t="s">
+      <c r="AI6" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ6" s="65" t="s">
+      <c r="AJ6" s="64" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H7" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="R7" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="65">
+      <c r="S7" s="64">
         <v>1</v>
       </c>
-      <c r="U7" s="65" t="s">
+      <c r="U7" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="V7" s="65">
+      <c r="V7" s="64">
         <v>1972</v>
       </c>
-      <c r="AB7" s="65" t="s">
+      <c r="AB7" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="AC7" s="65" t="s">
+      <c r="AC7" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="AD7" s="65" t="s">
+      <c r="AD7" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="AE7" s="65" t="s">
+      <c r="AE7" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="AF7" s="65" t="s">
+      <c r="AF7" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="AG7" s="65" t="s">
+      <c r="AG7" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="AH7" s="65" t="s">
+      <c r="AH7" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="AI7" s="65" t="s">
+      <c r="AI7" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ7" s="65" t="s">
+      <c r="AJ7" s="64" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>211</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="64" t="s">
         <v>191</v>
       </c>
       <c r="J8" t="s">
@@ -3529,87 +3526,87 @@
       <c r="L8" t="s">
         <v>248</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="64" t="s">
         <v>249</v>
       </c>
       <c r="N8" t="s">
         <v>252</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="R8" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="S8" s="65">
+      <c r="S8" s="64">
         <v>1</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="64">
         <v>1965</v>
       </c>
-      <c r="W8" s="65" t="s">
+      <c r="W8" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="X8" s="65" t="s">
+      <c r="X8" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="AC8" s="65" t="s">
+      <c r="AC8" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="AD8" s="65" t="s">
+      <c r="AD8" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="AE8" s="65" t="s">
+      <c r="AE8" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="AF8" s="65" t="s">
+      <c r="AF8" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="AG8" s="65" t="s">
+      <c r="AG8" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="AH8" s="65" t="s">
+      <c r="AH8" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="AI8" s="65" t="s">
+      <c r="AI8" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ8" s="65" t="s">
+      <c r="AJ8" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="64" t="s">
         <v>151</v>
       </c>
       <c r="H9" t="s">
         <v>211</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="64" t="s">
         <v>160</v>
       </c>
       <c r="J9" t="s">
@@ -3621,84 +3618,84 @@
       <c r="L9" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="R9" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="S9" s="65">
+      <c r="S9" s="64">
         <v>1</v>
       </c>
-      <c r="U9" s="65" t="s">
+      <c r="U9" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="V9" s="65">
+      <c r="V9" s="64">
         <v>1989</v>
       </c>
-      <c r="Y9" s="65" t="s">
+      <c r="Y9" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="AB9" s="65" t="s">
+      <c r="AB9" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="AC9" s="65" t="s">
+      <c r="AC9" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="AD9" s="65" t="s">
+      <c r="AD9" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="AE9" s="65" t="s">
+      <c r="AE9" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="AF9" s="65" t="s">
+      <c r="AF9" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="AG9" s="65" t="s">
+      <c r="AG9" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="AH9" s="65" t="s">
+      <c r="AH9" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="AI9" s="65" t="s">
+      <c r="AI9" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ9" s="65" t="s">
+      <c r="AJ9" s="64" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="64" t="s">
         <v>198</v>
       </c>
       <c r="H10" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="64" t="s">
         <v>199</v>
       </c>
       <c r="J10" t="s">
@@ -3710,58 +3707,58 @@
       <c r="L10" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="R10" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="S10" s="65">
+      <c r="S10" s="64">
         <v>1</v>
       </c>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="V10" s="65">
+      <c r="V10" s="64">
         <v>1993</v>
       </c>
-      <c r="W10" s="65" t="s">
+      <c r="W10" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="65" t="s">
+      <c r="X10" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="AB10" s="65" t="s">
+      <c r="AB10" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="AC10" s="65" t="s">
+      <c r="AC10" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="AD10" s="65" t="s">
+      <c r="AD10" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="AE10" s="65" t="s">
+      <c r="AE10" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="AF10" s="65" t="s">
+      <c r="AF10" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="AG10" s="65" t="s">
+      <c r="AG10" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="AH10" s="65" t="s">
+      <c r="AH10" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="AI10" s="65" t="s">
+      <c r="AI10" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AJ10" s="65" t="s">
+      <c r="AJ10" s="64" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3776,158 +3773,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="65" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.88671875" style="65" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="65"/>
+    <col min="1" max="1" width="18.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="64" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="64" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:36" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AB1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="63" t="s">
+      <c r="AD1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AE1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="63" t="s">
+      <c r="AF1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="63" t="s">
+      <c r="AH1" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AJ1" s="62" t="s">
         <v>245</v>
       </c>
     </row>
